--- a/Exams/Exam-02/Program_CheckList.xlsx
+++ b/Exams/Exam-02/Program_CheckList.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Backend Development\Repository\Practices\01.Clean-Code\StringCompress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\BackDevelopment\Exams\Exam-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536CD993-1E9F-471C-BBF9-C26F26B33F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>Creterio</t>
   </si>
@@ -108,12 +120,27 @@
   </si>
   <si>
     <t>Criterios de Codigo Limpio:Los Nombres de las variables y Funciones: (0.1/ cada una)</t>
+  </si>
+  <si>
+    <t>Lista bien todas las tarjetas sin omitir campos y en el formato correcto? Y sin generar errores?</t>
+  </si>
+  <si>
+    <t>Obtiene la Lista de las tarjetar por Red emisora? Validando si la red no es vacia y si existe en la lista?</t>
+  </si>
+  <si>
+    <t>Obtiene los datos de una tarjeta? (valida tarjeta vacia, numero valido, y valor valido)</t>
+  </si>
+  <si>
+    <t>Reactiva la tarjeta? (valida que la tarjeta exista, que el numero se validao y valor valido)</t>
+  </si>
+  <si>
+    <t>Verificar si una tarjeta es valida? (tarjeta solo numeros y que el digito de verificacion sea correcto)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -150,7 +177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +214,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -215,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -271,18 +310,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -290,12 +331,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
+        <color theme="9"/>
       </font>
     </dxf>
   </dxfs>
@@ -573,22 +609,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="85.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="85.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="82.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -602,7 +638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -614,7 +650,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
@@ -626,278 +662,329 @@
       </c>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="24">
         <v>1.5</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="25">
+        <f>SUM(B5:B9)</f>
         <v>1.5</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B10" s="17">
         <v>1</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C10" s="17">
         <v>1</v>
       </c>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B11" s="3">
         <v>1.5</v>
       </c>
-      <c r="C6" s="19">
-        <f>SUM(C10:C24)</f>
+      <c r="C11" s="19">
+        <f>SUM(C15:C29)</f>
         <v>1.5000000000000002</v>
       </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16">
-        <f>SUM(C2:C6)</f>
-        <v>5</v>
-      </c>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="16">
+        <f>SUM(C2:C11)</f>
+        <v>5</v>
+      </c>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3">
-        <f>IF(B10="Si",0.1,0)</f>
-        <v>0.1</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="B15" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3">
+        <f>IF(B15="Si",0.1,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5">
-        <f t="shared" ref="C11:C24" si="0">IF(B11="Si",0.1,0)</f>
-        <v>0.1</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="B16" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" ref="C16:C29" si="0">IF(B16="Si",0.1,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="B17" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="5">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="B18" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="B19" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="B20" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="3">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="B21" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="5">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="B22" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="3">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="B23" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="5">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="B24" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="3">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="B25" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="5">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="B26" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="3">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="B27" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="5">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="B28" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="3">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="D24" s="2"/>
+      <c r="B29" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="D29" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B10:B24">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="B15:B29">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Si"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B29" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Si,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Exams/Exam-02/Program_CheckList.xlsx
+++ b/Exams/Exam-02/Program_CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\BackDevelopment\Exams\Exam-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536CD993-1E9F-471C-BBF9-C26F26B33F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D86946-709A-4009-90B5-0E1235952F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,10 +141,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +171,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -251,8 +259,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -260,13 +269,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -278,9 +281,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -291,21 +291,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -313,14 +301,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -613,7 +617,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,16 +629,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -642,44 +646,44 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="17">
         <v>0.5</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="20">
         <v>0.5</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="18">
         <v>0.5</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="22">
         <v>0.5</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="19">
         <v>1.5</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="23">
         <f>SUM(B5:B9)</f>
         <v>1.5</v>
       </c>
-      <c r="D4" s="23"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="17">
         <v>0.3</v>
       </c>
       <c r="C5" s="20"/>
@@ -689,7 +693,7 @@
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="17">
         <v>0.3</v>
       </c>
       <c r="C6" s="20"/>
@@ -699,7 +703,7 @@
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="17">
         <v>0.3</v>
       </c>
       <c r="C7" s="20"/>
@@ -709,7 +713,7 @@
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="17">
         <v>0.3</v>
       </c>
       <c r="C8" s="20"/>
@@ -719,256 +723,256 @@
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="17">
         <v>0.3</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="18">
         <v>1</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="22">
         <v>1</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="17">
         <v>1.5</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="24">
         <f>SUM(C15:C29)</f>
         <v>1.5000000000000002</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16">
+      <c r="B12" s="12"/>
+      <c r="C12" s="25">
         <f>SUM(C2:C11)</f>
         <v>5</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="B15" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="20">
         <f>IF(B15="Si",0.1,0)</f>
         <v>0.1</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="B16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="21">
         <f t="shared" ref="C16:C29" si="0">IF(B16="Si",0.1,0)</f>
         <v>0.1</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="B17" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="20">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="5">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="D18" s="4"/>
+      <c r="B18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="21">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="B19" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="20">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="5">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="D20" s="4"/>
+      <c r="B20" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="21">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="B21" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="20">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="5">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="D22" s="4"/>
+      <c r="B22" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="21">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="B23" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="20">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="5">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="D24" s="4"/>
+      <c r="B24" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="21">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="B25" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="20">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="5">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="D26" s="4"/>
+      <c r="B26" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="21">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="3">
+      <c r="B27" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="20">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="D28" s="4"/>
+      <c r="B28" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="21">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="3">
+      <c r="B29" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="20">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
